--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -40,16 +40,19 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>начислены пени 103 дн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +81,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,11 +133,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,6 +174,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -211,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -452,17 +479,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -476,7 +503,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -502,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43769</v>
       </c>
@@ -516,7 +543,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6">
@@ -528,7 +555,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43803</v>
       </c>
@@ -544,7 +571,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>5163.5</v>
       </c>
       <c r="G4" s="10">
@@ -555,7 +582,7 @@
         <v>6077.18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6">
@@ -575,7 +602,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43830</v>
       </c>
@@ -602,7 +629,7 @@
         <v>2374.6999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6">
@@ -622,19 +649,92 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6">
+        <v>14038</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>591</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>2653.59</v>
+      </c>
       <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>8451.880000000001</v>
+        <f>SUM(F8,F9)</f>
+        <v>3229.5</v>
       </c>
       <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>8451.880000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3229.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6">
+        <v>4508</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C7</f>
+        <v>237</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>575.91000000000008</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11">
+        <f>SUM(G2:G9)</f>
+        <v>11681.380000000001</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H9)</f>
+        <v>11681.380000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>203.46</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -644,12 +744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,12 +758,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>начислены пени 103 дн</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>начислены пени 70 дн</t>
   </si>
 </sst>
 </file>
@@ -52,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +96,20 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -150,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +202,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,7 +562,9 @@
       <c r="A2" s="7">
         <v>43769</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="6">
         <v>11852</v>
       </c>
@@ -545,7 +576,9 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="6">
         <v>3740</v>
       </c>
@@ -559,7 +592,9 @@
       <c r="A4" s="7">
         <v>43803</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="6">
         <v>13002</v>
       </c>
@@ -584,7 +619,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="6">
         <v>4116</v>
       </c>
@@ -606,7 +643,9 @@
       <c r="A6" s="7">
         <v>43830</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="6">
         <v>13447</v>
       </c>
@@ -631,7 +670,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="6">
         <v>4271</v>
       </c>
@@ -653,7 +694,9 @@
       <c r="A8" s="7">
         <v>43934</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="6">
         <v>14038</v>
       </c>
@@ -678,7 +721,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="6">
         <v>4508</v>
       </c>
@@ -697,49 +742,151 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>11681.380000000001</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>11681.380000000001</v>
+      <c r="A10" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>203.46</v>
+      </c>
+      <c r="G10" s="14">
+        <v>203.46</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
+      <c r="A11" s="7">
+        <v>44005</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>15291</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C8</f>
+        <v>1253</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ref="F11:F12" si="3">D11*E11</f>
+        <v>5625.97</v>
       </c>
       <c r="G11" s="10">
-        <v>203.46</v>
-      </c>
-      <c r="H11" s="10"/>
+        <f>SUM(F11,F12)</f>
+        <v>6629.56</v>
+      </c>
+      <c r="H11" s="10">
+        <v>6629.56</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4921</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C9</f>
+        <v>413</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
+        <v>1003.59</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44005</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>198.89</v>
+      </c>
+      <c r="G13" s="15">
+        <v>198.89</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>18713.29</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>18310.940000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>-402.34999999999854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,33 +845,55 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11">
-        <f>SUM(G2:G13)</f>
-        <v>18713.29</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H13)</f>
-        <v>18310.940000000002</v>
+      <c r="A14" s="7">
+        <v>44049</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>16084</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C11</f>
+        <v>793</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>3735.0299999999997</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>4137.9299999999994</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4137.93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5079</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C12</f>
+        <v>158</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="4"/>
+        <v>402.9</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>-402.34999999999854</v>
-      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -880,8 +902,37 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>22851.22</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>22448.870000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
+        <v>-402.34999999999854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,33 +896,55 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>22851.22</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>22448.870000000003</v>
+      <c r="A16" s="7">
+        <v>44134</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6">
+        <v>17367</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C14</f>
+        <v>1283</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>6042.93</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>6795.18</v>
+      </c>
+      <c r="H16" s="10">
+        <v>6795.18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5374</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>295</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="5"/>
+        <v>752.25</v>
+      </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>-402.34999999999854</v>
-      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -931,8 +953,37 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>29646.400000000001</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>29244.050000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>-402.34999999999854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,33 +947,55 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>29646.400000000001</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>29244.050000000003</v>
+      <c r="A18" s="7">
+        <v>44186</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17545</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C16</f>
+        <v>178</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>838.38</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1024.53</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1024.53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5447</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C17</f>
+        <v>73</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="6"/>
+        <v>186.14999999999998</v>
+      </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="14">
-        <f>SUM(H18,-G18)</f>
-        <v>-402.34999999999854</v>
-      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -982,8 +1004,37 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>29646.400000000001</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>29244.050000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="14">
+        <f>SUM(H20,-G20)</f>
+        <v>-402.34999999999854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +89,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -176,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,9 +195,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,7 +743,7 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6">
@@ -760,7 +752,7 @@
       <c r="F10" s="9">
         <v>203.46</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>203.46</v>
       </c>
       <c r="H10" s="10">
@@ -828,7 +820,7 @@
       <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="6">
@@ -837,7 +829,7 @@
       <c r="F13" s="9">
         <v>198.89</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>198.89</v>
       </c>
       <c r="H13" s="11">
@@ -906,14 +898,14 @@
         <v>17367</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C14</f>
+        <f t="shared" ref="D16:D23" si="5">C16-C14</f>
         <v>1283</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
         <v>6042.93</v>
       </c>
       <c r="G16" s="10">
@@ -933,14 +925,14 @@
         <v>5374</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C15</f>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="E17" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>752.25</v>
       </c>
       <c r="G17" s="10"/>
@@ -957,14 +949,14 @@
         <v>17545</v>
       </c>
       <c r="D18" s="3">
-        <f>C18-C16</f>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
         <v>838.38</v>
       </c>
       <c r="G18" s="10">
@@ -984,57 +976,137 @@
         <v>5447</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C17</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="E19" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>186.14999999999998</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>29646.400000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>29244.050000000003</v>
+      <c r="A20" s="7">
+        <v>44245</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <v>18175</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>2967.3</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>3546.15</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3546.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>5674</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
+        <v>227</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="8"/>
+        <v>578.84999999999991</v>
+      </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="14">
-        <f>SUM(H20,-G20)</f>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44291</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6">
+        <v>18775</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>2826</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>3336</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5874</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="9"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="10">
+        <f>SUM(G2:G23)</f>
+        <v>37553.08</v>
+      </c>
+      <c r="H24" s="2">
+        <f>SUM(H2:H23)</f>
+        <v>37150.730000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
         <v>-402.34999999999854</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1092,19 +1092,70 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44362</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>18828</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="10">C24-C22</f>
+        <v>53</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <v>249.63</v>
+      </c>
       <c r="G24" s="10">
-        <f>SUM(G2:G23)</f>
-        <v>37553.08</v>
-      </c>
-      <c r="H24" s="2">
-        <f>SUM(H2:H23)</f>
-        <v>37150.730000000003</v>
+        <f>SUM(F24,F25)</f>
+        <v>795.32999999999993</v>
+      </c>
+      <c r="H24" s="10">
+        <v>795.33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="2"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
+      <c r="A25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6088</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="10"/>
+        <v>214</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="11"/>
+        <v>545.69999999999993</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="10">
+        <f>SUM(G2:G24)</f>
+        <v>38348.410000000003</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H2:H24)</f>
+        <v>37946.060000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>-402.34999999999854</v>
       </c>
     </row>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1143,20 +1143,71 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44442</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>19606</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="12">C26-C24</f>
+        <v>778</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="13">D26*E26</f>
+        <v>3858.88</v>
+      </c>
       <c r="G26" s="10">
-        <f>SUM(G2:G24)</f>
-        <v>38348.410000000003</v>
+        <f>SUM(F26,F27)</f>
+        <v>4435.08</v>
       </c>
       <c r="H26" s="10">
-        <f>SUM(H2:H24)</f>
-        <v>37946.060000000005</v>
+        <v>4569.08</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
-        <v>-402.34999999999854</v>
+      <c r="A27" s="2"/>
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6303</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="12"/>
+        <v>215</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="13"/>
+        <v>576.20000000000005</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="10">
+        <f>SUM(G2:G27)</f>
+        <v>42783.490000000005</v>
+      </c>
+      <c r="H28" s="10">
+        <f>SUM(H2:H27)</f>
+        <v>42515.140000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+      <c r="H29" s="10">
+        <f>SUM(G28,-H28)</f>
+        <v>268.34999999999854</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/320ee.xlsx
+++ b/sputnik/personal/ee/320ee.xlsx
@@ -1206,8 +1206,8 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
       <c r="H29" s="10">
-        <f>SUM(G28,-H28)</f>
-        <v>268.34999999999854</v>
+        <f>SUM(H28,-G28)</f>
+        <v>-268.34999999999854</v>
       </c>
     </row>
   </sheetData>
